--- a/BTH/lessvar/feature_selection/correlation_BTH.xlsx
+++ b/BTH/lessvar/feature_selection/correlation_BTH.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\data\BTH\lessvar\feature_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0308CACD-4C1D-4B6B-965F-E3FE25D47541}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75CBF35-EE6D-47F3-9A2C-87064D387723}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -504,7 +504,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -544,146 +544,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1023,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3657D11-C67B-479A-8436-5D774ECE2214}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="47.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/BTH/lessvar/feature_selection/correlation_BTH.xlsx
+++ b/BTH/lessvar/feature_selection/correlation_BTH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\data\BTH\lessvar\feature_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75CBF35-EE6D-47F3-9A2C-87064D387723}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB88A95-416C-4533-BCAB-710786B70C84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,7 +504,175 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -883,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3657D11-C67B-479A-8436-5D774ECE2214}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z10"/>
+    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="30" workbookViewId="0">
+      <selection sqref="A1:U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="47.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2282,26 +2450,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:U21">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
-      <formula>0.8</formula>
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
+      <formula>0.59</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+      <formula>0.4</formula>
       <formula>0.59</formula>
-      <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
-      <formula>0.4</formula>
-      <formula>0.6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>-0.8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
-      <formula>-0.8</formula>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>-0.59</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>-0.6</formula>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="between">
+      <formula>-0.59</formula>
       <formula>-0.4</formula>
     </cfRule>
   </conditionalFormatting>
